--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9A3DD1-1214-4554-A68B-C751AE86BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279631A7-753A-4210-B26A-87FBB8679484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="86">
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>row:true</t>
-  </si>
-  <si>
     <t>x1</t>
   </si>
   <si>
@@ -92,12 +89,6 @@
   </si>
   <si>
     <t>k9</t>
-  </si>
-  <si>
-    <t>无所谓</t>
-  </si>
-  <si>
-    <t>这样子</t>
   </si>
   <si>
     <t>huang</t>
@@ -436,6 +427,65 @@
   </si>
   <si>
     <t>list,DemoE2&amp;sep=,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段x1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>字段x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这是i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d的描述</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -565,11 +615,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -849,80 +899,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="13.25" customWidth="1"/>
-    <col min="8" max="8" width="19.375" customWidth="1"/>
-    <col min="9" max="9" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="8.875" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="20.125" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="20.375" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="30" max="30" width="16.375" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="20.375" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="29" max="29" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="7"/>
       <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
@@ -932,7 +982,7 @@
       <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -959,108 +1009,114 @@
       <c r="AC2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="P3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>83</v>
+      <c r="B5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10000</v>
       </c>
@@ -1082,65 +1138,65 @@
       <c r="H6">
         <v>1.23457891</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>3</v>
       </c>
       <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" t="s">
+      <c r="P6" t="s">
         <v>27</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>28</v>
       </c>
-      <c r="M6" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="W6" t="s">
         <v>32</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>33</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" t="s">
         <v>34</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Z6" t="s">
         <v>35</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AA6" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>37</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AC6" t="s">
         <v>38</v>
       </c>
-      <c r="AB6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10001</v>
       </c>
@@ -1162,65 +1218,65 @@
       <c r="H7">
         <v>1.23457891</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>5</v>
       </c>
       <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-      <c r="L7" t="s">
+      <c r="Q7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="R7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="U7" t="s">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
+      <c r="V7" t="s">
         <v>31</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="W7" t="s">
         <v>32</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" t="s">
         <v>33</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>34</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>35</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="AA7" t="s">
         <v>36</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AB7" t="s">
         <v>37</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AC7" t="s">
         <v>38</v>
       </c>
-      <c r="AB7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10002</v>
       </c>
@@ -1242,65 +1298,65 @@
       <c r="H8">
         <v>1.23457891</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>6</v>
       </c>
       <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" t="s">
         <v>26</v>
       </c>
-      <c r="K8" t="s">
+      <c r="P8" t="s">
         <v>27</v>
       </c>
-      <c r="L8" t="s">
+      <c r="Q8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" t="s">
+      <c r="R8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" t="s">
         <v>30</v>
       </c>
-      <c r="R8" t="s">
+      <c r="V8" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
+        <v>32</v>
+      </c>
+      <c r="X8" t="s">
         <v>33</v>
       </c>
-      <c r="W8" t="s">
+      <c r="Y8" t="s">
         <v>34</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>35</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="AA8" t="s">
         <v>36</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AB8" t="s">
         <v>37</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>38</v>
       </c>
-      <c r="AB8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10003</v>
       </c>
@@ -1322,65 +1378,65 @@
       <c r="H9">
         <v>1.23457891</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>3</v>
       </c>
       <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
+      <c r="P9" t="s">
         <v>27</v>
       </c>
-      <c r="L9" t="s">
+      <c r="Q9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U9" t="s">
         <v>30</v>
       </c>
-      <c r="R9" t="s">
+      <c r="V9" t="s">
         <v>31</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X9" t="s">
         <v>33</v>
       </c>
-      <c r="W9" t="s">
+      <c r="Y9" t="s">
         <v>34</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>35</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="AA9" t="s">
         <v>36</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AB9" t="s">
         <v>37</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AC9" t="s">
         <v>38</v>
       </c>
-      <c r="AB9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10004</v>
       </c>
@@ -1402,60 +1458,60 @@
       <c r="H10">
         <v>1.23457891</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>4</v>
       </c>
       <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s">
         <v>26</v>
       </c>
-      <c r="K10" t="s">
+      <c r="P10" t="s">
         <v>27</v>
       </c>
-      <c r="L10" t="s">
+      <c r="Q10" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="P10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
         <v>30</v>
       </c>
-      <c r="R10" t="s">
+      <c r="V10" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X10" t="s">
         <v>33</v>
       </c>
-      <c r="W10" t="s">
+      <c r="Y10" t="s">
         <v>34</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>35</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>36</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AB10" t="s">
         <v>37</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AC10" t="s">
         <v>38</v>
       </c>
-      <c r="AB10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10005</v>
       </c>
@@ -1477,60 +1533,60 @@
       <c r="H11">
         <v>1.23457891</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>5</v>
       </c>
       <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s">
         <v>26</v>
       </c>
-      <c r="K11" t="s">
+      <c r="P11" t="s">
         <v>27</v>
       </c>
-      <c r="L11" t="s">
+      <c r="Q11" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="P11" t="s">
+      <c r="R11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="U11" t="s">
         <v>30</v>
       </c>
-      <c r="R11" t="s">
+      <c r="V11" t="s">
         <v>31</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="W11" t="s">
         <v>32</v>
       </c>
-      <c r="V11" t="s">
+      <c r="X11" t="s">
         <v>33</v>
       </c>
-      <c r="W11" t="s">
+      <c r="Y11" t="s">
         <v>34</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AA11" t="s">
         <v>36</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AB11" t="s">
         <v>37</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AC11" t="s">
         <v>38</v>
       </c>
-      <c r="AB11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10006</v>
       </c>
@@ -1552,65 +1608,65 @@
       <c r="H12">
         <v>1.23457891</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>6</v>
       </c>
       <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O12" t="s">
         <v>26</v>
       </c>
-      <c r="K12" t="s">
+      <c r="P12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" t="s">
+      <c r="Q12" t="s">
         <v>28</v>
       </c>
-      <c r="M12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="P12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s">
         <v>30</v>
       </c>
-      <c r="R12" t="s">
+      <c r="V12" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>32</v>
+      </c>
+      <c r="X12" t="s">
         <v>33</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>34</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>36</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>38</v>
       </c>
-      <c r="AB12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>10007</v>
       </c>
@@ -1636,61 +1692,61 @@
         <v>4</v>
       </c>
       <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" t="s">
         <v>26</v>
       </c>
-      <c r="K13" t="s">
+      <c r="P13" t="s">
         <v>27</v>
       </c>
-      <c r="L13" t="s">
+      <c r="Q13" t="s">
         <v>28</v>
       </c>
-      <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="R13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="U13" t="s">
         <v>30</v>
       </c>
-      <c r="R13" t="s">
+      <c r="V13" t="s">
         <v>31</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="W13" t="s">
         <v>32</v>
       </c>
-      <c r="V13" t="s">
+      <c r="X13" t="s">
         <v>33</v>
       </c>
-      <c r="W13" t="s">
+      <c r="Y13" t="s">
         <v>34</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Z13" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AA13" t="s">
         <v>36</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AB13" t="s">
         <v>37</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>38</v>
       </c>
-      <c r="AB13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10008</v>
       </c>
@@ -1716,58 +1772,58 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" t="s">
         <v>26</v>
       </c>
-      <c r="K14" t="s">
+      <c r="P14" t="s">
         <v>27</v>
       </c>
-      <c r="L14" t="s">
+      <c r="Q14" t="s">
         <v>28</v>
       </c>
-      <c r="M14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="R14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="U14" t="s">
         <v>30</v>
       </c>
-      <c r="R14" t="s">
+      <c r="V14" t="s">
         <v>31</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="W14" t="s">
         <v>32</v>
       </c>
-      <c r="V14" t="s">
+      <c r="X14" t="s">
         <v>33</v>
       </c>
-      <c r="W14" t="s">
+      <c r="Y14" t="s">
         <v>34</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Z14" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AA14" t="s">
         <v>36</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AB14" t="s">
         <v>37</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>38</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DDED88-4F03-467F-816B-4CE122A7664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CB32DB-CCDA-4788-90F9-28E062D537CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6600" yWindow="3975" windowWidth="26100" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoEnum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>字段的描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETestQuality</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -242,12 +242,14 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -604,7 +606,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,7 +617,7 @@
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="5.75" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="13" max="13" width="9.875" customWidth="1"/>
@@ -627,12 +629,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -644,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>4</v>
@@ -673,7 +675,7 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -688,31 +690,31 @@
         <v>28</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -720,21 +722,21 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CB32DB-CCDA-4788-90F9-28E062D537CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B7CC2-D00D-4989-B010-1FC9C9BF596F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6600" yWindow="3975" windowWidth="26100" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,10 +106,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -222,7 +218,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ETestQuality</t>
+    <t>ETestQuality&amp;default=B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long&amp;default=10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +606,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -616,8 +616,8 @@
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="5.75" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="13" max="13" width="9.875" customWidth="1"/>
@@ -629,12 +629,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>4</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -684,37 +684,37 @@
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -722,21 +722,21 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -746,9 +746,6 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>13234234234</v>
-      </c>
       <c r="E6">
         <v>1.28</v>
       </c>
@@ -786,9 +783,6 @@
       </c>
       <c r="C7" t="b">
         <v>1</v>
-      </c>
-      <c r="D7">
-        <v>13234234234</v>
       </c>
       <c r="E7">
         <v>1.28</v>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B7CC2-D00D-4989-B010-1FC9C9BF596F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F4C93-3891-4E79-ADA0-41E1C965069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>vector2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>long&amp;default=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime&amp;tags=a=1|b=2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +606,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,12 +629,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>4</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -684,37 +684,37 @@
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -722,21 +722,21 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629F4C93-3891-4E79-ADA0-41E1C965069D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FC9F82-6DED-452F-843D-D1FCE11F0087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="840" windowWidth="24120" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
   <si>
     <t>##</t>
   </si>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int&amp;ref=test.TbDemoPrimitive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -222,7 +218,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datetime&amp;tags=a=1|b=2</t>
+    <t>datetime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +602,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -614,7 +610,7 @@
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
@@ -675,7 +671,7 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -684,28 +680,28 @@
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>30</v>
@@ -714,7 +710,7 @@
         <v>31</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -722,21 +718,21 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FC9F82-6DED-452F-843D-D1FCE11F0087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A7D82-3269-4DAD-81E3-9A23DC24E681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="840" windowWidth="24120" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31185" yWindow="2310" windowWidth="24120" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
   <si>
     <t>##</t>
   </si>
@@ -110,10 +110,6 @@
   </si>
   <si>
     <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -219,6 +215,14 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string&amp;default=xxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +606,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,7 +617,8 @@
     <col min="4" max="4" width="18.375" customWidth="1"/>
     <col min="5" max="5" width="8.875" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="29.375" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="13" max="13" width="9.875" customWidth="1"/>
@@ -625,12 +630,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
@@ -642,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>4</v>
@@ -671,7 +676,7 @@
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>26</v>
@@ -680,7 +685,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>27</v>
@@ -689,28 +694,28 @@
         <v>26</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -718,21 +723,21 @@
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -982,9 +987,6 @@
       <c r="C12" t="b">
         <v>1</v>
       </c>
-      <c r="D12">
-        <v>13234234234</v>
-      </c>
       <c r="E12">
         <v>1.28</v>
       </c>
@@ -992,10 +994,7 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
         <v>14</v>
@@ -1023,20 +1022,11 @@
       <c r="C13" t="b">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>13234234234</v>
-      </c>
       <c r="E13">
         <v>1.28</v>
       </c>
       <c r="F13">
         <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
       </c>
       <c r="I13" t="s">
         <v>14</v>
@@ -1064,20 +1054,11 @@
       <c r="C14" t="b">
         <v>1</v>
       </c>
-      <c r="D14">
-        <v>13234234234</v>
-      </c>
       <c r="E14">
         <v>1.28</v>
       </c>
       <c r="F14">
         <v>3</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
       </c>
       <c r="I14" t="s">
         <v>14</v>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A7D82-3269-4DAD-81E3-9A23DC24E681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD34221-461C-4A20-B032-7BD04F5C8F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31185" yWindow="2310" windowWidth="24120" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,21 +28,9 @@
     <t>x1</t>
   </si>
   <si>
-    <t>x5</t>
-  </si>
-  <si>
     <t>x6</t>
   </si>
   <si>
-    <t>x10</t>
-  </si>
-  <si>
-    <t>x13</t>
-  </si>
-  <si>
-    <t>x14</t>
-  </si>
-  <si>
     <t>v2</t>
   </si>
   <si>
@@ -52,12 +40,6 @@
     <t>k1</t>
   </si>
   <si>
-    <t>k8</t>
-  </si>
-  <si>
-    <t>k9</t>
-  </si>
-  <si>
     <t>huang</t>
   </si>
   <si>
@@ -121,10 +103,6 @@
   </si>
   <si>
     <t>map,int,int</t>
-  </si>
-  <si>
-    <t>title_rows:4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -152,15 +130,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DemoDynamic&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,DemoE2&amp;sep=,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,23 +176,59 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ETestQuality&amp;default=B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long&amp;default=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>string&amp;default=xxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title_rows=4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5&amp;default=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x10&amp;default=xxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETestQuality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x13&amp;default=B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoDynamic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x14&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,DemoE2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k9&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8&amp;sep=,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +612,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -619,7 +625,7 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
     <col min="7" max="7" width="19.125" customWidth="1"/>
     <col min="8" max="8" width="29.375" customWidth="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
     <col min="13" max="13" width="9.875" customWidth="1"/>
     <col min="14" max="14" width="16.375" customWidth="1"/>
@@ -630,114 +636,114 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -754,28 +760,28 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -792,28 +798,28 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="N7" t="s">
         <v>13</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -833,28 +839,28 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="N8" t="s">
         <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -874,28 +880,28 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="N9" t="s">
         <v>13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -915,28 +921,28 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="N10" t="s">
         <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -956,28 +962,28 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="N11" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -994,25 +1000,25 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1029,22 +1035,22 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1061,22 +1067,22 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD34221-461C-4A20-B032-7BD04F5C8F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253D5CA3-5D00-4CA0-A82D-47E530EFCBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="750" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="47">
-  <si>
-    <t>##</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>x1</t>
   </si>
@@ -76,10 +73,6 @@
   </si>
   <si>
     <t>2020-1-1 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -126,14 +119,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>属性</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>字段x1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -155,8 +140,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5&amp;default=10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x10&amp;default=xxx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETestQuality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x13&amp;default=B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoDynamic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x14&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,DemoE2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k9&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>i</t>
+      <t>#</t>
     </r>
     <r>
       <rPr>
@@ -167,68 +212,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>d的描述</t>
+      <t>#</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段的描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_rows=4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5&amp;default=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x10&amp;default=xxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETestQuality</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x13&amp;default=B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoDynamic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x14&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,DemoE2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k9&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8&amp;sep=,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +309,6 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -332,6 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -609,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -631,200 +616,266 @@
     <col min="14" max="14" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="E4">
+        <v>1.28</v>
+      </c>
+      <c r="F4" s="6">
         <v>3</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>10001</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1.28</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>10000</v>
+        <v>10002</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
+      <c r="D6">
+        <v>13234234234</v>
+      </c>
       <c r="E6">
         <v>1.28</v>
       </c>
-      <c r="F6" s="7">
-        <v>3</v>
+      <c r="F6" s="6">
+        <v>6</v>
       </c>
       <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
       <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>12</v>
-      </c>
-      <c r="N6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>10001</v>
+        <v>10003</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
+      <c r="D7">
+        <v>13234234234</v>
+      </c>
       <c r="E7">
         <v>1.28</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
       <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" t="s">
         <v>10</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>12</v>
-      </c>
-      <c r="N7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>10002</v>
+        <v>10004</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -835,37 +886,37 @@
       <c r="E8">
         <v>1.28</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>8</v>
       </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
+      <c r="K8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
         <v>11</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>12</v>
-      </c>
-      <c r="N8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>10003</v>
+        <v>10005</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -876,119 +927,104 @@
       <c r="E9">
         <v>1.28</v>
       </c>
-      <c r="F9" s="7">
-        <v>3</v>
+      <c r="F9" s="6">
+        <v>5</v>
       </c>
       <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>8</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="L9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>10004</v>
+        <v>10006</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
-      <c r="D10">
-        <v>13234234234</v>
-      </c>
       <c r="E10">
         <v>1.28</v>
       </c>
-      <c r="F10" s="7">
-        <v>4</v>
+      <c r="F10" s="6">
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>8</v>
       </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>17</v>
+      <c r="K10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="L10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
         <v>11</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>12</v>
-      </c>
-      <c r="N10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>10005</v>
+        <v>10007</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
-      <c r="D11">
-        <v>13234234234</v>
-      </c>
       <c r="E11">
         <v>1.28</v>
       </c>
-      <c r="F11" s="7">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
         <v>7</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>8</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" t="s">
         <v>10</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>11</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>12</v>
-      </c>
-      <c r="N11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>10006</v>
+        <v>10008</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -996,93 +1032,26 @@
       <c r="E12">
         <v>1.28</v>
       </c>
-      <c r="F12" s="7">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
+      <c r="F12">
+        <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
         <v>8</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="L12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
         <v>11</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>12</v>
-      </c>
-      <c r="N12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>10007</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1.28</v>
-      </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" t="s">
-        <v>11</v>
-      </c>
-      <c r="M13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>10008</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1.28</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L14" t="s">
-        <v>11</v>
-      </c>
-      <c r="M14" t="s">
-        <v>12</v>
-      </c>
-      <c r="N14" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253D5CA3-5D00-4CA0-A82D-47E530EFCBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD60413-BF9E-4EC3-ABA2-9F00E5DB5E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="750" windowWidth="25335" windowHeight="12915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>x1</t>
   </si>
@@ -214,6 +214,20 @@
       </rPr>
       <t>#</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试换行
+的话
+xxxx </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试 &lt;x&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试 / &amp; ;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -317,6 +331,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -597,7 +614,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -704,7 +721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -713,6 +730,15 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD60413-BF9E-4EC3-ABA2-9F00E5DB5E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694998FD-634A-4F94-85EF-C59FF1AAD562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
   <si>
     <t>x1</t>
   </si>
@@ -214,20 +214,6 @@
       </rPr>
       <t>#</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">测试换行
-的话
-xxxx </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试 &lt;x&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试 / &amp; ;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -614,7 +600,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -721,7 +707,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>42</v>
       </c>
@@ -731,15 +717,7 @@
       <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4">

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694998FD-634A-4F94-85EF-C59FF1AAD562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1EF82-5DA1-4CE3-AB04-02A9E5075839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>array,int</t>
-  </si>
-  <si>
-    <t>map,int,int</t>
   </si>
   <si>
     <r>
@@ -172,26 +169,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DemoDynamic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x14&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,DemoE2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k9&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -214,6 +191,30 @@
       </rPr>
       <t>#</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoDynamic&amp;sep=,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(map#sep=,),int,int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=,),DemoE2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>k9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +601,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -615,37 +616,37 @@
     <col min="8" max="8" width="29.375" customWidth="1"/>
     <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="15.75" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>2</v>
@@ -660,12 +661,12 @@
         <v>39</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -674,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>19</v>
@@ -683,39 +684,39 @@
         <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -973,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1EF82-5DA1-4CE3-AB04-02A9E5075839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22800" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,257 +14,395 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="43">
-  <si>
-    <t>x1</t>
-  </si>
-  <si>
-    <t>x6</t>
-  </si>
-  <si>
-    <t>v2</t>
-  </si>
-  <si>
-    <t>t1</t>
-  </si>
-  <si>
-    <t>k1</t>
-  </si>
-  <si>
-    <t>huang</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>DemoD2,1,2</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1999-08-24 10:09:09</t>
-  </si>
-  <si>
-    <t>1;2;3</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>1,true,2,false</t>
-  </si>
-  <si>
-    <t>2020-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>2020-01-01 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1999-8-4 10:09:09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-1-1 00:00:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>array,int</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+  <si>
+    <t>##</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>i</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x5&amp;default=10</t>
+  </si>
+  <si>
+    <t>x6</t>
   </si>
   <si>
     <t>x8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段x1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>x10&amp;default=xxx</t>
+  </si>
+  <si>
+    <t>x13&amp;default=B</t>
+  </si>
+  <si>
+    <t>x14</t>
+  </si>
+  <si>
+    <t>x15</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>k8</t>
+  </si>
+  <si>
+    <t>k9</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ETestQuality</t>
+  </si>
+  <si>
+    <t>DemoDynamic&amp;sep=,</t>
+  </si>
+  <si>
+    <t>Shape#sep=,</t>
+  </si>
+  <si>
+    <t>vector2</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>array,int</t>
+  </si>
+  <si>
+    <t>(map#sep=,),int,int</t>
+  </si>
+  <si>
+    <t>(list#sep=,),DemoE2</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是i</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
+        <rFont val="Calibri"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段x1</t>
+  </si>
+  <si>
+    <t>huang</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>DemoD2,1,2</t>
+  </si>
+  <si>
+    <t>Circle,1</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:09</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,true,2,false</t>
+  </si>
+  <si>
+    <t>Rectangle,10,20</t>
+  </si>
+  <si>
+    <t>Rectangle,10,21</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>Rectangle,10,22</t>
+  </si>
+  <si>
+    <t>1999-8-4 10:09:09</t>
+  </si>
+  <si>
+    <t>Rectangle,10,23</t>
+  </si>
+  <si>
+    <t>2020-1-1 00:00:00</t>
+  </si>
+  <si>
+    <t>Rectangle,10,24</t>
   </si>
   <si>
     <t>""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x5&amp;default=10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x10&amp;default=xxx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ETestQuality</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x13&amp;default=B</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>x14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoDynamic&amp;sep=,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(map#sep=,),int,int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(list#sep=,),DemoE2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>k9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rectangle,10,25</t>
+  </si>
+  <si>
+    <t>Rectangle,10,26</t>
+  </si>
+  <si>
+    <t>Rectangle,10,27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,10 +418,185 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,44 +604,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="29" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -592,135 +1177,141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="9.37142857142857" customWidth="1"/>
+    <col min="2" max="2" width="10.5047619047619" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.375" customWidth="1"/>
-    <col min="5" max="5" width="8.875" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="29.375" customWidth="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="15.75" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="4" max="4" width="18.3714285714286" customWidth="1"/>
+    <col min="5" max="5" width="8.87619047619048" customWidth="1"/>
+    <col min="6" max="6" width="12.3714285714286" customWidth="1"/>
+    <col min="7" max="7" width="19.1238095238095" customWidth="1"/>
+    <col min="8" max="8" width="29.3714285714286" customWidth="1"/>
+    <col min="9" max="10" width="20.3714285714286" customWidth="1"/>
+    <col min="12" max="12" width="20.3714285714286" customWidth="1"/>
+    <col min="14" max="14" width="15.752380952381" customWidth="1"/>
+    <col min="15" max="15" width="18.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
+      <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="D3" s="4"/>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -730,35 +1321,38 @@
       <c r="E4">
         <v>1.28</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N4" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15">
       <c r="B5">
         <v>10001</v>
       </c>
@@ -768,35 +1362,38 @@
       <c r="E5">
         <v>1.28</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="M5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N5" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -809,35 +1406,38 @@
       <c r="E6">
         <v>1.28</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N6" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15">
       <c r="B7">
         <v>10003</v>
       </c>
@@ -850,35 +1450,38 @@
       <c r="E7">
         <v>1.28</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" t="s">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N7" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15">
       <c r="B8">
         <v>10004</v>
       </c>
@@ -891,35 +1494,38 @@
       <c r="E8">
         <v>1.28</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="M8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N8" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15">
       <c r="B9">
         <v>10005</v>
       </c>
@@ -932,35 +1538,38 @@
       <c r="E9">
         <v>1.28</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N9" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O9" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15">
       <c r="B10">
         <v>10006</v>
       </c>
@@ -970,32 +1579,35 @@
       <c r="E10">
         <v>1.28</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O10" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15">
       <c r="B11">
         <v>10007</v>
       </c>
@@ -1009,25 +1621,28 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="M11" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O11" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15">
       <c r="B12">
         <v>10008</v>
       </c>
@@ -1041,27 +1656,30 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="J12" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="N12" t="s">
-        <v>12</v>
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>##</t>
   </si>
@@ -74,6 +74,9 @@
     <t>k1</t>
   </si>
   <si>
+    <t>k2</t>
+  </si>
+  <si>
     <t>k8</t>
   </si>
   <si>
@@ -239,10 +242,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +263,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -280,6 +276,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -289,106 +385,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -423,169 +419,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -614,21 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -644,11 +625,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,21 +690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -705,7 +701,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,134 +719,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="29" applyAlignment="1"/>
@@ -861,9 +857,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="29" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,10 +1185,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1201,11 +1203,11 @@
     <col min="8" max="8" width="29.3714285714286" customWidth="1"/>
     <col min="9" max="10" width="20.3714285714286" customWidth="1"/>
     <col min="12" max="12" width="20.3714285714286" customWidth="1"/>
-    <col min="14" max="14" width="15.752380952381" customWidth="1"/>
-    <col min="15" max="15" width="18.1238095238095" customWidth="1"/>
+    <col min="17" max="17" width="15.752380952381" customWidth="1"/>
+    <col min="18" max="18" width="18.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,73 +1247,83 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
+    <row r="2" s="2" customFormat="1" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:18">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -1325,34 +1337,40 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="L4" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
         <v>39</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
         <v>40</v>
       </c>
+      <c r="R4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:18">
       <c r="B5">
         <v>10001</v>
       </c>
@@ -1366,34 +1384,40 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:18">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -1410,34 +1434,40 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
         <v>39</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
         <v>40</v>
       </c>
+      <c r="R6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:18">
       <c r="B7">
         <v>10003</v>
       </c>
@@ -1454,34 +1484,40 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="M7" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
         <v>40</v>
       </c>
+      <c r="R7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:18">
       <c r="B8">
         <v>10004</v>
       </c>
@@ -1498,34 +1534,40 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" t="s">
         <v>39</v>
       </c>
-      <c r="O8" t="s">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
         <v>40</v>
       </c>
+      <c r="R8" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:18">
       <c r="B9">
         <v>10005</v>
       </c>
@@ -1542,34 +1584,37 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="L9" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M9" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" t="s">
         <v>39</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>40</v>
       </c>
+      <c r="R9" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:18">
       <c r="B10">
         <v>10006</v>
       </c>
@@ -1583,31 +1628,34 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" t="s">
         <v>40</v>
       </c>
+      <c r="R10" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:18">
       <c r="B11">
         <v>10007</v>
       </c>
@@ -1621,28 +1669,34 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="L11" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="s">
         <v>40</v>
       </c>
+      <c r="R11" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:18">
       <c r="B12">
         <v>10008</v>
       </c>
@@ -1656,28 +1710,38 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L12" s="7" t="s">
         <v>37</v>
       </c>
+      <c r="L12" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
         <v>39</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
         <v>40</v>
+      </c>
+      <c r="R12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="N2:P2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -240,10 +240,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -291,6 +291,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -308,6 +323,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -322,6 +345,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -330,13 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -345,13 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -362,30 +378,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,43 +425,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,13 +533,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,37 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,61 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +610,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,6 +656,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,41 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -689,15 +698,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -722,37 +722,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -761,88 +761,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,7 +1188,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N2" sqref="N2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="7230"/>
+    <workbookView windowWidth="19890" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>##</t>
   </si>
@@ -116,6 +116,9 @@
     <t>datetime</t>
   </si>
   <si>
+    <t>(array#sep=;),int</t>
+  </si>
+  <si>
     <t>array,int</t>
   </si>
   <si>
@@ -240,10 +243,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -263,6 +266,114 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,109 +387,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -425,169 +428,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,7 +608,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +635,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,45 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -698,10 +692,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -719,130 +722,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1203,6 +1206,7 @@
     <col min="8" max="8" width="29.3714285714286" customWidth="1"/>
     <col min="9" max="10" width="20.3714285714286" customWidth="1"/>
     <col min="12" max="12" width="20.3714285714286" customWidth="1"/>
+    <col min="13" max="13" width="17.5714285714286" customWidth="1"/>
     <col min="17" max="17" width="15.752380952381" customWidth="1"/>
     <col min="18" max="18" width="18.1238095238095" customWidth="1"/>
   </cols>
@@ -1300,26 +1304,26 @@
         <v>27</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4"/>
     </row>
@@ -1337,25 +1341,25 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1364,10 +1368,10 @@
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:18">
@@ -1384,25 +1388,25 @@
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1411,10 +1415,10 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:18">
@@ -1434,25 +1438,25 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1461,10 +1465,10 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:18">
@@ -1484,25 +1488,25 @@
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1511,10 +1515,10 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="2:18">
@@ -1534,25 +1538,25 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1561,10 +1565,10 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:18">
@@ -1584,34 +1588,34 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="2:18">
@@ -1628,31 +1632,31 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:18">
@@ -1669,31 +1673,31 @@
         <v>4</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" t="s">
         <v>40</v>
       </c>
-      <c r="O11" t="s">
-        <v>37</v>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:18">
@@ -1710,19 +1714,19 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1731,10 +1735,10 @@
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8280"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>x1</t>
   </si>
   <si>
-    <t>x5&amp;default=10</t>
+    <t>x5#default=10</t>
   </si>
   <si>
     <t>x6</t>
@@ -53,10 +53,10 @@
     <t>x8</t>
   </si>
   <si>
-    <t>x10&amp;default=xxx</t>
-  </si>
-  <si>
-    <t>x13&amp;default=B</t>
+    <t>x10#default=xxx</t>
+  </si>
+  <si>
+    <t>x13#default=B</t>
   </si>
   <si>
     <t>x14</t>
@@ -104,7 +104,7 @@
     <t>ETestQuality</t>
   </si>
   <si>
-    <t>DemoDynamic&amp;sep=,</t>
+    <t>DemoDynamic#sep=,</t>
   </si>
   <si>
     <t>Shape#sep=,</t>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>

--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitProject\Myluban\luban_examples\DesignerConfigs\Datas\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +28,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -33,8 +38,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -132,8 +137,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -142,8 +147,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -154,8 +159,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>这是i</t>
@@ -164,8 +169,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF006100"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -184,224 +189,133 @@
     <t>DemoD2,1,2</t>
   </si>
   <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1999-08-24 10:09:09</t>
+  </si>
+  <si>
+    <t>1;2;3</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>1,true,2,false</t>
+  </si>
+  <si>
+    <t>2020-01-01 00:00:00</t>
+  </si>
+  <si>
+    <t>1999-8-4 10:09:09</t>
+  </si>
+  <si>
+    <t>Rectangle,10,23</t>
+  </si>
+  <si>
+    <t>2020-1-1 00:00:00</t>
+  </si>
+  <si>
+    <t>Rectangle,10,24</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>Rectangle,10,25</t>
+  </si>
+  <si>
+    <t>Rectangle,10,26</t>
+  </si>
+  <si>
+    <t>Rectangle,10,27</t>
+  </si>
+  <si>
     <t>Circle,1</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>1999-08-24 10:09:09</t>
-  </si>
-  <si>
-    <t>1;2;3</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
-  </si>
-  <si>
-    <t>1,true,2,false</t>
-  </si>
-  <si>
-    <t>Rectangle,10,20</t>
-  </si>
-  <si>
-    <t>Rectangle,10,21</t>
-  </si>
-  <si>
-    <t>2020-01-01 00:00:00</t>
-  </si>
-  <si>
-    <t>Rectangle,10,22</t>
-  </si>
-  <si>
-    <t>1999-8-4 10:09:09</t>
-  </si>
-  <si>
-    <t>Rectangle,10,23</t>
-  </si>
-  <si>
-    <t>2020-1-1 00:00:00</t>
-  </si>
-  <si>
-    <t>Rectangle,10,24</t>
-  </si>
-  <si>
-    <t>""</t>
-  </si>
-  <si>
-    <t>Rectangle,10,25</t>
-  </si>
-  <si>
-    <t>Rectangle,10,26</t>
-  </si>
-  <si>
-    <t>Rectangle,10,27</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Circle,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rectangle,10,29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Rectangle,10,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,182 +334,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -603,328 +343,50 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="29" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="29" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1182,36 +644,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.37142857142857" customWidth="1"/>
-    <col min="2" max="2" width="10.5047619047619" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.3714285714286" customWidth="1"/>
-    <col min="5" max="5" width="8.87619047619048" customWidth="1"/>
-    <col min="6" max="6" width="12.3714285714286" customWidth="1"/>
-    <col min="7" max="7" width="19.1238095238095" customWidth="1"/>
-    <col min="8" max="8" width="29.3714285714286" customWidth="1"/>
-    <col min="9" max="10" width="20.3714285714286" customWidth="1"/>
-    <col min="12" max="12" width="20.3714285714286" customWidth="1"/>
-    <col min="13" max="13" width="17.5714285714286" customWidth="1"/>
-    <col min="17" max="17" width="15.752380952381" customWidth="1"/>
-    <col min="18" max="18" width="18.1238095238095" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="29.375" customWidth="1"/>
+    <col min="9" max="10" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="17.625" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:18">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,11 +713,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
       <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:18">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1303,11 +765,11 @@
       <c r="M2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
       <c r="Q2" s="2" t="s">
         <v>29</v>
       </c>
@@ -1315,7 +777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:4">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -1327,7 +789,7 @@
       </c>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>10000</v>
       </c>
@@ -1350,16 +812,16 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" t="s">
         <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>40</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1368,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" t="s">
         <v>41</v>
       </c>
-      <c r="R4" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>10001</v>
       </c>
@@ -1396,17 +858,17 @@
       <c r="I5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
-        <v>43</v>
+      <c r="J5" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="M5" t="s">
         <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>40</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1415,13 +877,13 @@
         <v>2</v>
       </c>
       <c r="Q5" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
         <v>41</v>
       </c>
-      <c r="R5" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>10002</v>
       </c>
@@ -1446,17 +908,17 @@
       <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
-        <v>44</v>
+      <c r="J6" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="M6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1465,13 +927,13 @@
         <v>2</v>
       </c>
       <c r="Q6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
         <v>41</v>
       </c>
-      <c r="R6" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10003</v>
       </c>
@@ -1496,17 +958,17 @@
       <c r="I7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
-        <v>46</v>
+      <c r="J7" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1515,13 +977,13 @@
         <v>2</v>
       </c>
       <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s">
         <v>41</v>
       </c>
-      <c r="R7" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>10004</v>
       </c>
@@ -1547,16 +1009,16 @@
         <v>36</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1565,13 +1027,13 @@
         <v>2</v>
       </c>
       <c r="Q8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s">
         <v>41</v>
       </c>
-      <c r="R8" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>10005</v>
       </c>
@@ -1597,28 +1059,28 @@
         <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="M9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
         <v>40</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>41</v>
       </c>
-      <c r="R9" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>10006</v>
       </c>
@@ -1632,34 +1094,34 @@
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
         <v>40</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>41</v>
       </c>
-      <c r="R10" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10007</v>
       </c>
@@ -1676,16 +1138,16 @@
         <v>36</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="M11" t="s">
         <v>39</v>
-      </c>
-      <c r="M11" t="s">
-        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1694,13 +1156,13 @@
         <v>2</v>
       </c>
       <c r="Q11" t="s">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s">
         <v>41</v>
       </c>
-      <c r="R11" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10008</v>
       </c>
@@ -1717,16 +1179,16 @@
         <v>36</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="M12" t="s">
         <v>39</v>
-      </c>
-      <c r="M12" t="s">
-        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1735,10 +1197,10 @@
         <v>2</v>
       </c>
       <c r="Q12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s">
         <v>41</v>
-      </c>
-      <c r="R12" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1746,8 +1208,8 @@
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\luban_workspace\luban_examples\DesignerConfigs\Datas\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A5660F-184F-4546-A542-BAE9DA412F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="1392" windowWidth="23040" windowHeight="9372" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="16835" windowHeight="8327"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="93">
   <si>
     <t>##</t>
   </si>
@@ -30,7 +24,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -40,7 +34,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -65,6 +59,9 @@
     <t>x13#default=B</t>
   </si>
   <si>
+    <t>x13_2</t>
+  </si>
+  <si>
     <t>x14</t>
   </si>
   <si>
@@ -89,6 +86,12 @@
     <t>k9</t>
   </si>
   <si>
+    <t>k10</t>
+  </si>
+  <si>
+    <t>k11</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>ETestQuality</t>
   </si>
   <si>
+    <t>DemoFlag</t>
+  </si>
+  <si>
     <t>DemoDynamic#sep=,</t>
   </si>
   <si>
@@ -132,6 +138,24 @@
   </si>
   <si>
     <t>(list#sep=,),DemoE2</t>
+  </si>
+  <si>
+    <t>list,vector3</t>
+  </si>
+  <si>
+    <t>list,vector4</t>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <r>
@@ -139,7 +163,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -149,7 +173,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>#</t>
@@ -161,7 +185,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>这是i</t>
@@ -171,7 +195,7 @@
         <sz val="11"/>
         <color rgb="FF006100"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -184,9 +208,6 @@
     <t>huang</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>DemoD2,1,2</t>
   </si>
   <si>
@@ -208,71 +229,140 @@
     <t>1,true,2,false</t>
   </si>
   <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
+  </si>
+  <si>
+    <t>1,2,3,5</t>
+  </si>
+  <si>
+    <t>1,2,3,6</t>
+  </si>
+  <si>
     <t>Rectangle,10,20</t>
   </si>
   <si>
+    <t>2,3,5</t>
+  </si>
+  <si>
+    <t>1,2,5</t>
+  </si>
+  <si>
+    <t>1,2,3,7</t>
+  </si>
+  <si>
     <t>Rectangle,10,21</t>
   </si>
   <si>
     <t>2020-01-01 00:00:00</t>
   </si>
   <si>
+    <t>2,3,6</t>
+  </si>
+  <si>
+    <t>1,2,6</t>
+  </si>
+  <si>
+    <t>1,2,3,8</t>
+  </si>
+  <si>
     <t>Rectangle,10,22</t>
   </si>
   <si>
     <t>1999-8-4 10:09:09</t>
   </si>
   <si>
+    <t>2,3,7</t>
+  </si>
+  <si>
+    <t>1,2,7</t>
+  </si>
+  <si>
+    <t>1,2,3,9</t>
+  </si>
+  <si>
     <t>Rectangle,10,23</t>
   </si>
   <si>
     <t>2020-1-1 00:00:00</t>
   </si>
   <si>
+    <t>2,3,8</t>
+  </si>
+  <si>
+    <t>1,2,8</t>
+  </si>
+  <si>
+    <t>1,2,3,10</t>
+  </si>
+  <si>
     <t>Rectangle,10,24</t>
   </si>
   <si>
+    <t>2,3,9</t>
+  </si>
+  <si>
+    <t>1,2,9</t>
+  </si>
+  <si>
+    <t>1,2,3,11</t>
+  </si>
+  <si>
     <t>""</t>
   </si>
   <si>
     <t>Rectangle,10,25</t>
   </si>
   <si>
+    <t>2,3,10</t>
+  </si>
+  <si>
+    <t>1,2,10</t>
+  </si>
+  <si>
+    <t>1,2,3,12</t>
+  </si>
+  <si>
     <t>Rectangle,10,26</t>
   </si>
   <si>
+    <t>2,3,11</t>
+  </si>
+  <si>
+    <t>1,2,11</t>
+  </si>
+  <si>
+    <t>1,2,3,13</t>
+  </si>
+  <si>
     <t>Rectangle,10,27</t>
   </si>
   <si>
-    <t>##var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>x13_2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DemoFlag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>2,3,12</t>
+  </si>
+  <si>
+    <t>1,2,12</t>
+  </si>
+  <si>
+    <t>1,2,3,14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,25 +374,148 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,8 +534,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -330,52 +723,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="31" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -633,39 +1305,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.33333333333333" customWidth="1"/>
+    <col min="2" max="2" width="10.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="13" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.5546875" customWidth="1"/>
-    <col min="20" max="20" width="15.77734375" customWidth="1"/>
-    <col min="21" max="21" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="19.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="29.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.1111111111111" customWidth="1"/>
+    <col min="10" max="10" width="11.5555555555556" customWidth="1"/>
+    <col min="11" max="11" width="12.2222222222222" customWidth="1"/>
+    <col min="12" max="13" width="20.3333333333333" customWidth="1"/>
+    <col min="15" max="15" width="20.3333333333333" customWidth="1"/>
+    <col min="16" max="16" width="17.5555555555556" customWidth="1"/>
+    <col min="20" max="20" width="15.7777777777778" customWidth="1"/>
+    <col min="21" max="21" width="18.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,125 +1362,145 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="Q1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
       <c r="T1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" s="2" customFormat="1" spans="1:27">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
       <c r="T2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" s="2" customFormat="1" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27">
       <c r="B5">
         <v>10000</v>
       </c>
@@ -822,10 +1514,10 @@
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -834,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -855,13 +1547,31 @@
         <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V5" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27">
       <c r="B6">
         <v>10001</v>
       </c>
@@ -875,10 +1585,10 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -887,19 +1597,19 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="P6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -908,13 +1618,31 @@
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27">
       <c r="B7">
         <v>10002</v>
       </c>
@@ -931,25 +1659,25 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="P7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -958,13 +1686,31 @@
         <v>2</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W7" t="s">
+        <v>63</v>
+      </c>
+      <c r="X7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27">
       <c r="B8">
         <v>10003</v>
       </c>
@@ -981,25 +1727,25 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="N8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O8" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="O8" s="10" t="s">
+        <v>67</v>
+      </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -1008,13 +1754,31 @@
         <v>2</v>
       </c>
       <c r="T8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U8" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27">
       <c r="B9">
         <v>10004</v>
       </c>
@@ -1031,25 +1795,25 @@
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="N9" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s">
         <v>49</v>
-      </c>
-      <c r="P9" t="s">
-        <v>40</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -1058,13 +1822,31 @@
         <v>2</v>
       </c>
       <c r="T9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U9" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" t="s">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27">
       <c r="B10">
         <v>10005</v>
       </c>
@@ -1081,37 +1863,55 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="N10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U10" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V10" t="s">
+        <v>74</v>
+      </c>
+      <c r="W10" t="s">
+        <v>77</v>
+      </c>
+      <c r="X10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27">
       <c r="B11">
         <v>10006</v>
       </c>
@@ -1125,34 +1925,52 @@
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="P11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U11" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V11" t="s">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X11" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27">
       <c r="B12">
         <v>10007</v>
       </c>
@@ -1166,19 +1984,19 @@
         <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1</v>
@@ -1187,13 +2005,31 @@
         <v>2</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>86</v>
+      </c>
+      <c r="X12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27">
       <c r="B13">
         <v>10008</v>
       </c>
@@ -1207,19 +2043,19 @@
         <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M13" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1228,21 +2064,43 @@
         <v>2</v>
       </c>
       <c r="T13" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="U13" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="V13" t="s">
+        <v>87</v>
+      </c>
+      <c r="W13" t="s">
+        <v>90</v>
+      </c>
+      <c r="X13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/test/define_from_excel.xlsx
+++ b/DesignerConfigs/Datas/test/define_from_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowWidth="23490" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
     <t>test.Shape#sep=,</t>
   </si>
   <si>
-    <t>vector2</t>
+    <t>vec2</t>
   </si>
   <si>
     <t>datetime</t>
@@ -140,10 +140,10 @@
     <t>(list#sep=,),test.DemoE2</t>
   </si>
   <si>
-    <t>list,vector3</t>
-  </si>
-  <si>
-    <t>list,vector4</t>
+    <t>list,vec3</t>
+  </si>
+  <si>
+    <t>list,vec4</t>
   </si>
   <si>
     <t>##var</t>
@@ -1313,8 +1313,8 @@
   <sheetPr/>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
